--- a/ProcessedData/conf_rbf_SVM_early_fusion_4.xlsx
+++ b/ProcessedData/conf_rbf_SVM_early_fusion_4.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1516828914578325</v>
+        <v>0.2488037547138672</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2360276809274756</v>
+        <v>0.3302006542731327</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09311004417469294</v>
+        <v>0.4209955910130002</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4181089657721724</v>
+        <v>0.2182893141502331</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2778528916264636</v>
+        <v>0.4115016253064098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1929785254478007</v>
+        <v>0.3702090605433567</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1611503571817189</v>
+        <v>0.3028746206329321</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1450525495539409</v>
+        <v>0.3090760081457172</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05408303721900623</v>
+        <v>0.3880493712213509</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1856182317090958</v>
+        <v>0.2393332373932483</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2599427971875513</v>
+        <v>0.3360961051559253</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07858518513536139</v>
+        <v>0.4245706574508262</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5938893694286991</v>
+        <v>0.1224481665176254</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7012724285269583</v>
+        <v>0.3704204510602062</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1062863374997606</v>
+        <v>0.5071313824221684</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2580638590799304</v>
+        <v>0.2380302997431204</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2416753461341464</v>
+        <v>0.3620124902005614</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01777162845112169</v>
+        <v>0.3999572100563183</v>
       </c>
       <c r="E7" t="n">
         <v>28</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452183616053683</v>
+        <v>0.4667696070062683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2147660625256268</v>
+        <v>0.2441370074024223</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3705194788602942</v>
+        <v>0.2890933855913091</v>
       </c>
       <c r="E8" t="n">
         <v>28</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.737265881864497</v>
+        <v>0.2168410161090395</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1561617104587939</v>
+        <v>0.5288338463274646</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6535996048993703</v>
+        <v>0.2543251375634957</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1997480308358288</v>
+        <v>0.2436691278464217</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2360775431223167</v>
+        <v>0.3476982734525189</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03111103597924</v>
+        <v>0.4086325987010595</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1995469788578953</v>
+        <v>0.202821378018285</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3802931306091495</v>
+        <v>0.305600193628576</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.247438340221136</v>
+        <v>0.4915784283531389</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5196241194356859</v>
+        <v>0.2192553102892012</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2523965241687905</v>
+        <v>0.4603066083511264</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4014957112268087</v>
+        <v>0.3204380813596725</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2192947031801836</v>
+        <v>0.2345208147807128</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2690440144228012</v>
+        <v>0.3457387466039126</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04403785467907426</v>
+        <v>0.4197404386153744</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2560344578335728</v>
+        <v>0.2397085823072179</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2377596646418693</v>
+        <v>0.3665522938915244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04344660604288858</v>
+        <v>0.3937391238012576</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1590501488260359</v>
+        <v>0.2479740274133303</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2371328196974198</v>
+        <v>0.3326656038685348</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08333918157526711</v>
+        <v>0.4193603687181345</v>
       </c>
       <c r="E15" t="n">
         <v>28</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5389427002945446</v>
+        <v>0.2182723709699904</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2475477547632385</v>
+        <v>0.4593618702792909</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3872054204799278</v>
+        <v>0.3223657587507188</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6956112995761874</v>
+        <v>0.2047664627449768</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.246163373941454</v>
+        <v>0.530349849874083</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6655128126931037</v>
+        <v>0.2648836873809399</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1361278168539019</v>
+        <v>0.2548777707057428</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2197831508846533</v>
+        <v>0.3285967210120611</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09377737602449779</v>
+        <v>0.4165255082821959</v>
       </c>
       <c r="E18" t="n">
         <v>28</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1359539615268738</v>
+        <v>0.2535508442263421</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.224161458461241</v>
+        <v>0.3278713494771558</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09785633593137651</v>
+        <v>0.4185778062965022</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1453503590617524</v>
+        <v>0.3812196736818469</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08666628313891886</v>
+        <v>0.3037583272408456</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1022401570143398</v>
+        <v>0.3150219990773075</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1511166611655883</v>
+        <v>0.2488402867816351</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2360357087075938</v>
+        <v>0.3300150396277711</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.09384889783235151</v>
+        <v>0.4211446735905938</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.342209991363056</v>
+        <v>0.01068109062685443</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.927616694020173</v>
+        <v>0.08145331096583279</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.704041897415309</v>
+        <v>0.9078655984073127</v>
       </c>
       <c r="E22" t="n">
         <v>29</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1511154221631066</v>
+        <v>0.2466788170778821</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2431258709225188</v>
+        <v>0.3285182889662482</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1022655669727465</v>
+        <v>0.4248028939558696</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1509138000678502</v>
+        <v>0.2488874009826325</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2359270648604515</v>
+        <v>0.329972567845617</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0939785322173685</v>
+        <v>0.4211400311717506</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6645533631271932</v>
+        <v>0.5246488464053767</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2603147122145899</v>
+        <v>0.1836611235325426</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.8447617761744832</v>
+        <v>0.2916900300620807</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3862601723069442</v>
+        <v>0.1690387813892755</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4913525396127563</v>
+        <v>0.3576710344737959</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07652605115541647</v>
+        <v>0.4732901841369288</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5592466937608969</v>
+        <v>0.1059310043919244</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7108104866607444</v>
+        <v>0.2230741168612655</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7357139980429287</v>
+        <v>0.6709948787468101</v>
       </c>
       <c r="E27" t="n">
         <v>29</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2234420791779277</v>
+        <v>0.2228748841561205</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3160649902801125</v>
+        <v>0.3641920364003195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04105771460636504</v>
+        <v>0.4129330794435602</v>
       </c>
       <c r="E28" t="n">
         <v>29</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.476645853885462</v>
+        <v>0.2008856465690526</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3841358188533698</v>
+        <v>0.5129331485855086</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6570898757355046</v>
+        <v>0.2861812048454388</v>
       </c>
       <c r="E29" t="n">
         <v>29</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.388123373243098</v>
+        <v>0.314655198895578</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01885255027856222</v>
+        <v>0.2744335981181869</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.5876656290035949</v>
+        <v>0.4109112029862351</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.5258002953066709</v>
+        <v>0.1314941871891604</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.6035836813314905</v>
+        <v>0.2797380811790376</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4625055609906826</v>
+        <v>0.588767731631802</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.365942022179871</v>
+        <v>0.01383161267940275</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.215455948909254</v>
+        <v>0.1279643218961201</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.328790394704823</v>
+        <v>0.8582040654244768</v>
       </c>
       <c r="E32" t="n">
         <v>29</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.113604114700423</v>
+        <v>0.1954666378764373</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4243318212241139</v>
+        <v>0.2922348774557204</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2893971796601726</v>
+        <v>0.5122984846678426</v>
       </c>
       <c r="E33" t="n">
         <v>29</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.37961285370709</v>
+        <v>0.2748077433904313</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2541018651898457</v>
+        <v>0.1638099681089575</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.9516391892524647</v>
+        <v>0.5613822885006112</v>
       </c>
       <c r="E34" t="n">
         <v>29</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.356610002807187</v>
+        <v>0.01370726548312211</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.630207657993113</v>
+        <v>0.08023041536006319</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.719103754086964</v>
+        <v>0.9060623191568149</v>
       </c>
       <c r="E35" t="n">
         <v>29</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.5182262256405474</v>
+        <v>0.2046722589811367</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2968602901038746</v>
+        <v>0.4126741322564635</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1507803205647716</v>
+        <v>0.3826536087623996</v>
       </c>
       <c r="E36" t="n">
         <v>29</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.8873696050482205</v>
+        <v>0.04815700527266423</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.926011156638349</v>
+        <v>0.3128960285978585</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4210141877790515</v>
+        <v>0.6389469661294772</v>
       </c>
       <c r="E37" t="n">
         <v>29</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03413488697924955</v>
+        <v>0.2268644177257166</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3599302983242464</v>
+        <v>0.3591729443222128</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09251656012315687</v>
+        <v>0.4139626379520711</v>
       </c>
       <c r="E38" t="n">
         <v>29</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09706288492949414</v>
+        <v>0.274799398923017</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.209866008321489</v>
+        <v>0.2715549499547064</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3125363462419166</v>
+        <v>0.4536456511222766</v>
       </c>
       <c r="E39" t="n">
         <v>29</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.38137467920647</v>
+        <v>0.04629858643059154</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.676468032580193</v>
+        <v>0.416874774855302</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1088249565224959</v>
+        <v>0.5368266387141063</v>
       </c>
       <c r="E40" t="n">
         <v>29</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.8914626544599775</v>
+        <v>0.056630388472283</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.045644731159098</v>
+        <v>0.3705359595041776</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2113038851582372</v>
+        <v>0.5728336520235394</v>
       </c>
       <c r="E41" t="n">
         <v>29</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.7798612797129361</v>
+        <v>0.170628251760906</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3689020364459006</v>
+        <v>0.2690282818321597</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.5662938267040002</v>
+        <v>0.5603434664069344</v>
       </c>
       <c r="E42" t="n">
         <v>29</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4970342249643436</v>
+        <v>0.2086037492399219</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2951902530776301</v>
+        <v>0.4303889467248769</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2473345547350564</v>
+        <v>0.361007304035201</v>
       </c>
       <c r="E43" t="n">
         <v>29</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.107577847783056</v>
+        <v>0.03967230965730955</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.207318806821899</v>
+        <v>0.1852876596136867</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.9814985850556492</v>
+        <v>0.7750400307290037</v>
       </c>
       <c r="E44" t="n">
         <v>29</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.2044370414300166</v>
+        <v>0.2439733103569099</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2368938175322796</v>
+        <v>0.3586678816533022</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02592376143746915</v>
+        <v>0.3973588079897881</v>
       </c>
       <c r="E45" t="n">
         <v>29</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07843068775903517</v>
+        <v>0.09012702579611594</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.8275945770218325</v>
+        <v>0.1151414317113836</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.30948726412209</v>
+        <v>0.7947315424925002</v>
       </c>
       <c r="E46" t="n">
         <v>29</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.434861180333985</v>
+        <v>0.05847540002217546</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.247201812349255</v>
+        <v>0.4981196569599762</v>
       </c>
       <c r="D47" t="n">
-        <v>0.164710386048215</v>
+        <v>0.4434049430178482</v>
       </c>
       <c r="E47" t="n">
         <v>29</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1511166615212536</v>
+        <v>0.2488399899468836</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2360366821958721</v>
+        <v>0.330014834533751</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.09385005285175557</v>
+        <v>0.4211451755193656</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.7828211337368582</v>
+        <v>0.08560643615546622</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.9831436635759548</v>
+        <v>0.373407652089722</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1586321734961739</v>
+        <v>0.5409859117548117</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.279612469032524</v>
+        <v>0.02086847495608383</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.023309525123545</v>
+        <v>0.1780445910340724</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.031770566763884</v>
+        <v>0.8010869340098441</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.779509919483752</v>
+        <v>0.07181351837706965</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.099970277827538</v>
+        <v>0.3255115380055887</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.3443468800102385</v>
+        <v>0.6026749436173415</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.061682117035429</v>
+        <v>0.1421045751586257</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4969581059284299</v>
+        <v>0.6765058409645873</v>
       </c>
       <c r="D52" t="n">
-        <v>1.189005485171378</v>
+        <v>0.1813895838767868</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3335844086161488</v>
+        <v>0.1042284885693775</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.8377248661350178</v>
+        <v>0.2782103619601649</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.4449861381202325</v>
+        <v>0.6175611494704576</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4195199569843286</v>
+        <v>0.2318870984028529</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2663377975375601</v>
+        <v>0.5221120179963282</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8189913471378105</v>
+        <v>0.2460008836008188</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1748793529761105</v>
+        <v>0.06910493671651641</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.262215196466848</v>
+        <v>0.239667676331965</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.6036014350048975</v>
+        <v>0.691227386951519</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01578233746861304</v>
+        <v>0.2245463819271738</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.3433563761908384</v>
+        <v>0.2661057115669651</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.3779925943798483</v>
+        <v>0.5093479065058614</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.6815828656787357</v>
+        <v>0.1111677010091843</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.7654316377480131</v>
+        <v>0.381847215696207</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.08815849566160992</v>
+        <v>0.5069850832946091</v>
       </c>
       <c r="E57" t="n">
         <v>30</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.857065263732254</v>
+        <v>0.009252730112002875</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.679028987885748</v>
+        <v>0.06771641840140796</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.866373461619508</v>
+        <v>0.9230308514865893</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.616485351105029</v>
+        <v>0.05121014551503748</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.9915258860326411</v>
+        <v>0.333743643121592</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3919131364107878</v>
+        <v>0.6150462113633705</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.715704818231865</v>
+        <v>0.0349786369091229</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.447194873605372</v>
+        <v>0.3639327903023802</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3064779837502162</v>
+        <v>0.6010885727884969</v>
       </c>
       <c r="E60" t="n">
         <v>30</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.04497408541671942</v>
+        <v>0.3619005498943539</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1071821454596555</v>
+        <v>0.3781333168766288</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2851831099604353</v>
+        <v>0.2599661332290172</v>
       </c>
       <c r="E61" t="n">
         <v>30</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1915127283405725</v>
+        <v>0.1335940667025153</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.8236640589057561</v>
+        <v>0.3805838002589446</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03207759542138877</v>
+        <v>0.48582213303854</v>
       </c>
       <c r="E62" t="n">
         <v>30</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.02742297279631</v>
+        <v>0.008764844922509557</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.426772050176286</v>
+        <v>0.1406965979880709</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.265982210441091</v>
+        <v>0.8505385570894196</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9338558544966962</v>
+        <v>0.08506208449445792</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.7161349304080327</v>
+        <v>0.1017030836891717</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.579251556515495</v>
+        <v>0.8132348318163705</v>
       </c>
       <c r="E64" t="n">
         <v>30</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.370160274540947</v>
+        <v>0.01112995206781093</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.940708644444858</v>
+        <v>0.08878855547830744</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.634790584815221</v>
+        <v>0.9000814924538816</v>
       </c>
       <c r="E65" t="n">
         <v>30</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.502851694721762</v>
+        <v>0.05576802364654292</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.468690372924637</v>
+        <v>0.5426254701417705</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3002971145617451</v>
+        <v>0.4016065062116865</v>
       </c>
       <c r="E66" t="n">
         <v>30</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.899671345783164</v>
+        <v>0.07679033279994207</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.12226003642018</v>
+        <v>0.4043906713468978</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0738743499216622</v>
+        <v>0.51881899585316</v>
       </c>
       <c r="E67" t="n">
         <v>30</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.767881511494404</v>
+        <v>0.02824941855022219</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.643090297585357</v>
+        <v>0.3259379634773013</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.4414033969020361</v>
+        <v>0.6458126179724766</v>
       </c>
       <c r="E68" t="n">
         <v>30</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.3203929866622897</v>
+        <v>0.1135446794554019</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.496535938630381</v>
+        <v>0.4690890651332042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.311636170439723</v>
+        <v>0.417366255411394</v>
       </c>
       <c r="E69" t="n">
         <v>30</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.5393218269266564</v>
+        <v>0.1111781798396707</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.266660184851769</v>
+        <v>0.5060783513296626</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3983030568898588</v>
+        <v>0.3827434688306667</v>
       </c>
       <c r="E70" t="n">
         <v>30</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.432220029562492</v>
+        <v>0.1168345315684278</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.445408158738711</v>
+        <v>0.6187734013245098</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7159332001232109</v>
+        <v>0.2643920671070626</v>
       </c>
       <c r="E71" t="n">
         <v>30</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9596994207112022</v>
+        <v>0.1908206408585315</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1897210229473402</v>
+        <v>0.673074019244201</v>
       </c>
       <c r="D72" t="n">
-        <v>1.491642246739812</v>
+        <v>0.1361053398972674</v>
       </c>
       <c r="E72" t="n">
         <v>30</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.8028981025208</v>
+        <v>0.0149889349313398</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.91676708392814</v>
+        <v>0.4558127134767803</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.06011888950483949</v>
+        <v>0.5291983515918799</v>
       </c>
       <c r="E73" t="n">
         <v>30</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.04498570535881288</v>
+        <v>0.1484311717793067</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.5526778137780173</v>
+        <v>0.1229042605438141</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.334506582082869</v>
+        <v>0.728664567676879</v>
       </c>
       <c r="E74" t="n">
         <v>30</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.853081836596667</v>
+        <v>0.08360175559639157</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.9083566503745734</v>
+        <v>0.3384486493634183</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.2960465803619851</v>
+        <v>0.5779495950401901</v>
       </c>
       <c r="E75" t="n">
         <v>30</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.135393939640009</v>
+        <v>0.007648392717778315</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.68678251844617</v>
+        <v>0.1484159602728094</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.218177175228052</v>
+        <v>0.8439356470094121</v>
       </c>
       <c r="E76" t="n">
         <v>30</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1640910312424239</v>
+        <v>0.2384955296102077</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.2623447520894255</v>
+        <v>0.2794600165268044</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.3703308580747916</v>
+        <v>0.4820444538629878</v>
       </c>
       <c r="E77" t="n">
         <v>30</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.487804897599199</v>
+        <v>0.03523710726191011</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.53214043672916</v>
+        <v>0.3181555489331652</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4532457781121555</v>
+        <v>0.6466073438049248</v>
       </c>
       <c r="E78" t="n">
         <v>30</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.8831481909366892</v>
+        <v>0.04679095462514835</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.274918010497312</v>
+        <v>0.2276286095335535</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.7613076233931567</v>
+        <v>0.7255804358412983</v>
       </c>
       <c r="E79" t="n">
         <v>30</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5360241444166787</v>
+        <v>0.364013760711589</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.07036976762130023</v>
+        <v>0.201298108972942</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5974580286827316</v>
+        <v>0.434688130315469</v>
       </c>
       <c r="E80" t="n">
         <v>30</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.520887943478292</v>
+        <v>0.02084516064298307</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.049579023263528</v>
+        <v>0.2157147179988683</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.8629023497014414</v>
+        <v>0.7634401213581485</v>
       </c>
       <c r="E81" t="n">
         <v>30</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9637581844497114</v>
+        <v>0.1287359362514624</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.7602186034982433</v>
+        <v>0.6729921741260024</v>
       </c>
       <c r="D82" t="n">
-        <v>1.119560403879929</v>
+        <v>0.1982718896225351</v>
       </c>
       <c r="E82" t="n">
         <v>30</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.261926166734017</v>
+        <v>0.01180120526622586</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.784110269296636</v>
+        <v>0.07517060238092635</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.766929583080442</v>
+        <v>0.913028192352848</v>
       </c>
       <c r="E83" t="n">
         <v>30</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.30446700907606</v>
+        <v>0.01780311433127765</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.153497998881892</v>
+        <v>0.3620235834794812</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.3425195403063241</v>
+        <v>0.6201733021892413</v>
       </c>
       <c r="E84" t="n">
         <v>30</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.681232083925547</v>
+        <v>0.1376766349971359</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.7704236595245324</v>
+        <v>0.5625752040964807</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6656385214753562</v>
+        <v>0.2997481609063835</v>
       </c>
       <c r="E85" t="n">
         <v>30</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6733422335007972</v>
+        <v>0.5194922918486099</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2302916860705153</v>
+        <v>0.1694353599532376</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.013496181904323</v>
+        <v>0.3110723481981524</v>
       </c>
       <c r="E86" t="n">
         <v>30</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.4985025445976963</v>
+        <v>0.04075818986728981</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.532470664566279</v>
+        <v>0.1827891177772854</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.9371579282895323</v>
+        <v>0.7764526923554246</v>
       </c>
       <c r="E87" t="n">
         <v>30</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-2.304275767055452</v>
+        <v>0.02164406682407788</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.380481081783077</v>
+        <v>0.2969791339656332</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5589074152386568</v>
+        <v>0.6813767992102887</v>
       </c>
       <c r="E88" t="n">
         <v>30</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.2464266865910312</v>
+        <v>0.04322732737317114</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.400591712342203</v>
+        <v>0.1531375942354617</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.070037352748834</v>
+        <v>0.8036350783913672</v>
       </c>
       <c r="E89" t="n">
         <v>30</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.5189803279709047</v>
+        <v>0.02277336226185451</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.945420808209513</v>
+        <v>0.1163520778348403</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.349362090636314</v>
+        <v>0.8608745599033047</v>
       </c>
       <c r="E90" t="n">
         <v>30</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3355215422158825</v>
+        <v>0.2328627825539925</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.2412999412047227</v>
+        <v>0.3532290843611698</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.05207008765013552</v>
+        <v>0.4139081330848378</v>
       </c>
       <c r="E91" t="n">
         <v>30</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06446842467609981</v>
+        <v>0.1450147204744359</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.6572870311625731</v>
+        <v>0.2524723441271182</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4572036558189841</v>
+        <v>0.6025129353984455</v>
       </c>
       <c r="E92" t="n">
         <v>30</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.292384325114529</v>
+        <v>0.009531494804339841</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.764035395916173</v>
+        <v>0.1997411003457747</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.9576093377198696</v>
+        <v>0.7907274048498854</v>
       </c>
       <c r="E93" t="n">
         <v>30</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.696627152545241</v>
+        <v>0.04015158396025405</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.007069494640372</v>
+        <v>0.4852997554633497</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08336822481979855</v>
+        <v>0.4745486605763962</v>
       </c>
       <c r="E94" t="n">
         <v>30</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.8890939096229868</v>
+        <v>0.2197068352822222</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03771158157475568</v>
+        <v>0.6332458033553883</v>
       </c>
       <c r="D95" t="n">
-        <v>1.290940664890832</v>
+        <v>0.1470473613623896</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1511166615264312</v>
+        <v>0.2488402931986231</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2360356875793659</v>
+        <v>0.3300150441979567</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.09384887229376512</v>
+        <v>0.4211446626034199</v>
       </c>
       <c r="E96" t="n">
         <v>31</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1526305065084478</v>
+        <v>0.244412687194452</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.2501418813772512</v>
+        <v>0.3269314574505521</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1117815407260254</v>
+        <v>0.4286558553549961</v>
       </c>
       <c r="E97" t="n">
         <v>31</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1511866998075918</v>
+        <v>0.2260579759487479</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3111992476521624</v>
+        <v>0.3145597581380744</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1800057505893101</v>
+        <v>0.459382265913178</v>
       </c>
       <c r="E98" t="n">
         <v>31</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.4359193553260871</v>
+        <v>0.1941303475882918</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.3741970068276878</v>
+        <v>0.3957165233876334</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09653273607335186</v>
+        <v>0.4101531290240751</v>
       </c>
       <c r="E99" t="n">
         <v>31</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1511224030246071</v>
+        <v>0.247565396891765</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.240215189772234</v>
+        <v>0.3291294724323295</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.09883289448149861</v>
+        <v>0.4233051306759054</v>
       </c>
       <c r="E100" t="n">
         <v>31</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1591676965089253</v>
+        <v>0.2448563809896623</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2475086809751898</v>
+        <v>0.3312308348817901</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.09172112805164012</v>
+        <v>0.4239127841285478</v>
       </c>
       <c r="E101" t="n">
         <v>31</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.3249098766019113</v>
+        <v>0.1785879432421319</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.4588785493996854</v>
+        <v>0.3431776385814168</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.11799970025437</v>
+        <v>0.4782344181764512</v>
       </c>
       <c r="E102" t="n">
         <v>31</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1656930844042034</v>
+        <v>0.2004933030498378</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.3932987766721417</v>
+        <v>0.2926049705117517</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.3020912202564175</v>
+        <v>0.5069017264384105</v>
       </c>
       <c r="E103" t="n">
         <v>31</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1537668654527661</v>
+        <v>0.2450209968555469</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2479621512348418</v>
+        <v>0.3281864294950819</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1054923952682922</v>
+        <v>0.4267925736493714</v>
       </c>
       <c r="E104" t="n">
         <v>31</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1584096267401433</v>
+        <v>0.1594521512142256</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.544167782928153</v>
+        <v>0.2576719030853308</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.4826131103276455</v>
+        <v>0.5828759457004434</v>
       </c>
       <c r="E105" t="n">
         <v>31</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1511176588807743</v>
+        <v>0.2488402319819732</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.236035663284171</v>
+        <v>0.3300153738052596</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.09384755580191979</v>
+        <v>0.4211443942127671</v>
       </c>
       <c r="E106" t="n">
         <v>31</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.5299691372776235</v>
+        <v>0.2130736534999949</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2872121538947906</v>
+        <v>0.5075902310743639</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6316202771869657</v>
+        <v>0.2793361154256412</v>
       </c>
       <c r="E107" t="n">
         <v>31</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1511166615264312</v>
+        <v>0.2462770427140407</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2444437553624372</v>
+        <v>0.3282407302325248</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1038250313579565</v>
+        <v>0.4254822270534347</v>
       </c>
       <c r="E108" t="n">
         <v>31</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4743008938031868</v>
+        <v>0.4292859583448363</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1106822390592902</v>
+        <v>0.2452300413055388</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3135712327726823</v>
+        <v>0.3254840003496247</v>
       </c>
       <c r="E109" t="n">
         <v>31</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2385054986029052</v>
+        <v>0.436606662648663</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2341614712912347</v>
+        <v>0.3115866905287184</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01527682844787787</v>
+        <v>0.2518066468226187</v>
       </c>
       <c r="E110" t="n">
         <v>31</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1183916644856507</v>
+        <v>0.4427693543452367</v>
       </c>
       <c r="C111" t="n">
-        <v>0.346884628775823</v>
+        <v>0.3535681465911432</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2129462464792506</v>
+        <v>0.2036624990636204</v>
       </c>
       <c r="E111" t="n">
         <v>31</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1430563564202143</v>
+        <v>0.2161692587912756</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.3452894007675478</v>
+        <v>0.3036201287019563</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.2355421578752257</v>
+        <v>0.4802106125067681</v>
       </c>
       <c r="E112" t="n">
         <v>31</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9567089077755235</v>
+        <v>0.2407600374888428</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.009795275933388831</v>
+        <v>0.378163022952174</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1914945431291192</v>
+        <v>0.381076939558983</v>
       </c>
       <c r="E113" t="n">
         <v>31</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3801083238447741</v>
+        <v>0.1493185219498064</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.5602360100095682</v>
+        <v>0.3008581869612882</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.3342514781421201</v>
+        <v>0.5498232910889055</v>
       </c>
       <c r="E114" t="n">
         <v>31</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1447947269173411</v>
+        <v>0.2513494755413112</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.2292642272474564</v>
+        <v>0.3294063329933533</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.09387032213126111</v>
+        <v>0.4192441914653354</v>
       </c>
       <c r="E115" t="n">
         <v>31</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9746154962511413</v>
+        <v>0.6851883671554636</v>
       </c>
       <c r="C116" t="n">
-        <v>1.027981568309882</v>
+        <v>0.2350718028128193</v>
       </c>
       <c r="D116" t="n">
-        <v>0.171101707568134</v>
+        <v>0.07973983003171739</v>
       </c>
       <c r="E116" t="n">
         <v>31</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.736865475017064</v>
+        <v>0.2824230107709647</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2133048555741547</v>
+        <v>0.4929145081567256</v>
       </c>
       <c r="D117" t="n">
-        <v>0.404886686958572</v>
+        <v>0.2246624810723098</v>
       </c>
       <c r="E117" t="n">
         <v>32</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.010962644528609</v>
+        <v>0.09944834523023151</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.8560746790706563</v>
+        <v>0.511997845154043</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3197219146785089</v>
+        <v>0.3885538096157254</v>
       </c>
       <c r="E118" t="n">
         <v>32</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1480008031353008</v>
+        <v>0.4270654146524318</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2363225867128786</v>
+        <v>0.3088607318956652</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.09906899386499328</v>
+        <v>0.2640738534519027</v>
       </c>
       <c r="E119" t="n">
         <v>32</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.154727122690035</v>
+        <v>0.7193349244202341</v>
       </c>
       <c r="C120" t="n">
-        <v>1.205083480969354</v>
+        <v>0.2367004884298934</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8407616442298869</v>
+        <v>0.04396458714987263</v>
       </c>
       <c r="E120" t="n">
         <v>32</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1628844424229836</v>
+        <v>0.4258561571219876</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5320089493668083</v>
+        <v>0.3936561232487786</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1308914482470276</v>
+        <v>0.1804877196292337</v>
       </c>
       <c r="E121" t="n">
         <v>32</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.04457580537830874</v>
+        <v>0.2700177040641466</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1967029260046599</v>
+        <v>0.3476118275376924</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0542552639576584</v>
+        <v>0.3823704683981609</v>
       </c>
       <c r="E122" t="n">
         <v>32</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4932093165002501</v>
+        <v>0.4448984462180002</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1392921767209256</v>
+        <v>0.3243098626099048</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4669575537173171</v>
+        <v>0.2307916911720949</v>
       </c>
       <c r="E123" t="n">
         <v>32</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1511166615264312</v>
+        <v>0.2488402931986218</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.2360356875793701</v>
+        <v>0.3300150441979559</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.09384887229377013</v>
+        <v>0.421144662603422</v>
       </c>
       <c r="E124" t="n">
         <v>32</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7615710111036431</v>
+        <v>0.6294361234918922</v>
       </c>
       <c r="C125" t="n">
-        <v>0.848805237590466</v>
+        <v>0.2720564344414461</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2670955624808956</v>
+        <v>0.09850744206666184</v>
       </c>
       <c r="E125" t="n">
         <v>32</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1743585839010257</v>
+        <v>0.2442660883499055</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.2459328134871787</v>
+        <v>0.3355269837520264</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.07559403884399056</v>
+        <v>0.4202069278980679</v>
       </c>
       <c r="E126" t="n">
         <v>32</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1626062220829704</v>
+        <v>0.4196489672056014</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2107389815556849</v>
+        <v>0.3199539347061731</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01352928604532402</v>
+        <v>0.2603970980882255</v>
       </c>
       <c r="E127" t="n">
         <v>32</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.604639131441959</v>
+        <v>0.1628622214130802</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.7363924810616397</v>
+        <v>0.2807518780234499</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1463632655041945</v>
+        <v>0.5563859005634697</v>
       </c>
       <c r="E128" t="n">
         <v>32</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.06655711789437449</v>
+        <v>0.2706226115772514</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.2887607757993605</v>
+        <v>0.4228551073554821</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5736418132635759</v>
+        <v>0.3065222810672664</v>
       </c>
       <c r="E129" t="n">
         <v>32</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.8386666139465573</v>
+        <v>0.1911004012584476</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.2513369057153234</v>
+        <v>0.5809002441776744</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8592032050989853</v>
+        <v>0.2279993545638779</v>
       </c>
       <c r="E130" t="n">
         <v>32</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7149521558036587</v>
+        <v>0.5943994212477004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5848668750032177</v>
+        <v>0.3170089923587833</v>
       </c>
       <c r="D131" t="n">
-        <v>1.134900228498772</v>
+        <v>0.08859158639351629</v>
       </c>
       <c r="E131" t="n">
         <v>32</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.711001936041073</v>
+        <v>0.1113088332701611</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.3422485763979255</v>
+        <v>0.6127743367891336</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6312103985279567</v>
+        <v>0.275916829940705</v>
       </c>
       <c r="E132" t="n">
         <v>32</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.05122678674536994</v>
+        <v>0.2608317425229525</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.2206573775467681</v>
+        <v>0.3079276091171453</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1688476746248406</v>
+        <v>0.431240648359902</v>
       </c>
       <c r="E133" t="n">
         <v>32</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.2181115931398333</v>
+        <v>0.2026994971922574</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.378813591109782</v>
+        <v>0.3149774392735306</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.207336171825145</v>
+        <v>0.482323063534212</v>
       </c>
       <c r="E134" t="n">
         <v>32</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5650345451764338</v>
+        <v>0.5661221005835053</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6042801838614211</v>
+        <v>0.2918820325467872</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1794714295956857</v>
+        <v>0.1419958668697075</v>
       </c>
       <c r="E135" t="n">
         <v>32</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.2224074990063</v>
+        <v>0.3093292241891539</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.02514732172653544</v>
+        <v>0.297670394096867</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.3439141090156937</v>
+        <v>0.393000381713979</v>
       </c>
       <c r="E136" t="n">
         <v>32</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7927534097195466</v>
+        <v>0.1576432591936949</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.6007783803899646</v>
+        <v>0.1264704682003396</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.062827749782838</v>
+        <v>0.7158862726059656</v>
       </c>
       <c r="E137" t="n">
         <v>32</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.07352543688579485</v>
+        <v>0.4439635243109715</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7591782278735788</v>
+        <v>0.4933852103557926</v>
       </c>
       <c r="D138" t="n">
-        <v>1.385793238348829</v>
+        <v>0.06265126533323598</v>
       </c>
       <c r="E138" t="n">
         <v>32</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.1510147861911243</v>
+        <v>0.2488806862479568</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.2359262466922922</v>
+        <v>0.3300052756165007</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.09384887229344821</v>
+        <v>0.4211140381355425</v>
       </c>
       <c r="E139" t="n">
         <v>32</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3719462427538894</v>
+        <v>0.4354489892825324</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1576883827567686</v>
+        <v>0.2568953284904227</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.309711879142543</v>
+        <v>0.3076556822270448</v>
       </c>
       <c r="E140" t="n">
         <v>32</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02880401507058805</v>
+        <v>0.4840091173588473</v>
       </c>
       <c r="C141" t="n">
-        <v>1.410020221666136</v>
+        <v>0.4987704149224399</v>
       </c>
       <c r="D141" t="n">
-        <v>2.187920522098026</v>
+        <v>0.01722046771871284</v>
       </c>
       <c r="E141" t="n">
         <v>32</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.2861680095412461</v>
+        <v>0.3275970071600732</v>
       </c>
       <c r="C142" t="n">
-        <v>0.08017721264578667</v>
+        <v>0.3570509729606149</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.04235409237453158</v>
+        <v>0.3153520198793121</v>
       </c>
       <c r="E142" t="n">
         <v>32</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7247869262429822</v>
+        <v>0.2223648709632654</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.4070989535722748</v>
+        <v>0.103266968786299</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.381375653779149</v>
+        <v>0.6743681602504357</v>
       </c>
       <c r="E143" t="n">
         <v>32</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7354590896482613</v>
+        <v>0.2458989169399321</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.355176581513711</v>
+        <v>0.1350751780768509</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.038662966604641</v>
+        <v>0.6190259049832171</v>
       </c>
       <c r="E144" t="n">
         <v>32</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1511166427897453</v>
+        <v>0.2479193644862636</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2390563390382755</v>
+        <v>0.3293784302053093</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.09743170918349903</v>
+        <v>0.4227022053084271</v>
       </c>
       <c r="E145" t="n">
         <v>32</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.151096989748268</v>
+        <v>0.2488332555939222</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2360632183494044</v>
+        <v>0.3300029081164095</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.09390658832925954</v>
+        <v>0.4211638362896684</v>
       </c>
       <c r="E146" t="n">
         <v>32</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9812254750838669</v>
+        <v>0.6897017856736741</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9615522796878957</v>
+        <v>0.2193474275448415</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.05726270480340002</v>
+        <v>0.09095078678148438</v>
       </c>
       <c r="E147" t="n">
         <v>32</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.6432522327532131</v>
+        <v>0.2982823172807821</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2592829716906566</v>
+        <v>0.5041628761595016</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5321365795328518</v>
+        <v>0.1975548065597161</v>
       </c>
       <c r="E148" t="n">
         <v>32</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.228963782730873</v>
+        <v>0.6327590387543421</v>
       </c>
       <c r="C149" t="n">
-        <v>0.405754058547353</v>
+        <v>0.155365110138816</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.5620500515196425</v>
+        <v>0.2118758511068419</v>
       </c>
       <c r="E149" t="n">
         <v>32</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.2214079183376502</v>
+        <v>0.4877973765956593</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4672341599007859</v>
+        <v>0.3223707504867543</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01482008350698662</v>
+        <v>0.1898318729175864</v>
       </c>
       <c r="E150" t="n">
         <v>32</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01941840373470149</v>
+        <v>0.4160807967732945</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3369254591852706</v>
+        <v>0.3740119284672427</v>
       </c>
       <c r="D151" t="n">
-        <v>0.201898111757647</v>
+        <v>0.2099072747594627</v>
       </c>
       <c r="E151" t="n">
         <v>32</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.726990580082773</v>
+        <v>0.2075134882071501</v>
       </c>
       <c r="C152" t="n">
-        <v>0.217407946843365</v>
+        <v>0.4784300692596909</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.05838720721357537</v>
+        <v>0.3140564425331588</v>
       </c>
       <c r="E152" t="n">
         <v>32</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.1510276992783254</v>
+        <v>0.2488755680689006</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.2359401120268925</v>
+        <v>0.3300065152162214</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.09384886423819312</v>
+        <v>0.4211179167148778</v>
       </c>
       <c r="E153" t="n">
         <v>32</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2904981454654612</v>
+        <v>0.1215473531719236</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.7231777572888467</v>
+        <v>0.1569253411733509</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.9530338916439883</v>
+        <v>0.7215273056547253</v>
       </c>
       <c r="E154" t="n">
         <v>33</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.03579381172868452</v>
+        <v>0.2785368206103369</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1639478814199705</v>
+        <v>0.3117387478910465</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1490635693963036</v>
+        <v>0.4097244314986165</v>
       </c>
       <c r="E155" t="n">
         <v>33</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.7212549684604439</v>
+        <v>0.05424131128671107</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.190662958646491</v>
+        <v>0.2247974170852498</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.7555876567218901</v>
+        <v>0.7209612716280392</v>
       </c>
       <c r="E156" t="n">
         <v>33</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1510147224598343</v>
+        <v>0.2460335825797431</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.2452650029167203</v>
+        <v>0.3280350067263488</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1049256138118257</v>
+        <v>0.4259314106939082</v>
       </c>
       <c r="E157" t="n">
         <v>33</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.3990126732657635</v>
+        <v>0.07218857309959574</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.149340994464663</v>
+        <v>0.260951374981296</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.546848560961263</v>
+        <v>0.6668600519191081</v>
       </c>
       <c r="E158" t="n">
         <v>33</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.675174680901256</v>
+        <v>0.06863202032706862</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.8058565084637094</v>
+        <v>0.4872366103556028</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1301636492442448</v>
+        <v>0.4441313693173286</v>
       </c>
       <c r="E159" t="n">
         <v>33</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.2740433315223438</v>
+        <v>0.06735503714103667</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.9832590842845138</v>
+        <v>0.1443399391220001</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.136210995700189</v>
+        <v>0.7883050237369632</v>
       </c>
       <c r="E160" t="n">
         <v>33</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.3157592756252065</v>
+        <v>0.1172856776464492</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.7174685330018</v>
+        <v>0.2485521034759902</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.5701467871704878</v>
+        <v>0.6341622188775604</v>
       </c>
       <c r="E161" t="n">
         <v>33</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5529867724135719</v>
+        <v>0.1242857374185838</v>
       </c>
       <c r="C162" t="n">
-        <v>-1.272033029272973</v>
+        <v>0.5675533694544129</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6747674153501146</v>
+        <v>0.3081608931270032</v>
       </c>
       <c r="E162" t="n">
         <v>33</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.631576124936363</v>
+        <v>0.02253421322942171</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.353385166604604</v>
+        <v>0.1408110208141536</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.254946130133176</v>
+        <v>0.8366547659564245</v>
       </c>
       <c r="E163" t="n">
         <v>33</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-2.689094303863847</v>
+        <v>0.008880917898136238</v>
       </c>
       <c r="C164" t="n">
-        <v>-2.734977847530727</v>
+        <v>0.2639566382869056</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.6938454418210449</v>
+        <v>0.7271624438149584</v>
       </c>
       <c r="E164" t="n">
         <v>33</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.6547750875755518</v>
+        <v>0.1288006067058189</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.5790121714398488</v>
+        <v>0.260339113394817</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.5726403948158725</v>
+        <v>0.610860279899364</v>
       </c>
       <c r="E165" t="n">
         <v>33</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3633372098426459</v>
+        <v>0.3086600195187788</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1730468482773583</v>
+        <v>0.1801843746812775</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.8455414346342843</v>
+        <v>0.5111556057999433</v>
       </c>
       <c r="E166" t="n">
         <v>33</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2448863405986824</v>
+        <v>0.05538469564113379</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.349060509059636</v>
+        <v>0.1623700281646742</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.925971286535372</v>
+        <v>0.7822452761941919</v>
       </c>
       <c r="E167" t="n">
         <v>33</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9906367870842741</v>
+        <v>0.08439768128605535</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.9892882072090294</v>
+        <v>0.4456087442154425</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06649922124283669</v>
+        <v>0.4699935744985018</v>
       </c>
       <c r="E168" t="n">
         <v>33</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1305678322676742</v>
+        <v>0.04343665801144498</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.602890556796472</v>
+        <v>0.1692548734769783</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.9563723441685427</v>
+        <v>0.7873084685115765</v>
       </c>
       <c r="E169" t="n">
         <v>33</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.3246050077763005</v>
+        <v>0.2212782331747533</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.2888518120167473</v>
+        <v>0.358862657355448</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.02335665250813035</v>
+        <v>0.4198591094697985</v>
       </c>
       <c r="E170" t="n">
         <v>33</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.3182166776933093</v>
+        <v>0.152662429774171</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.566287595535295</v>
+        <v>0.3107636242560168</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.2748633788784387</v>
+        <v>0.5365739459698119</v>
       </c>
       <c r="E171" t="n">
         <v>33</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.400327505474215</v>
+        <v>0.03385821293631937</v>
       </c>
       <c r="C172" t="n">
-        <v>-2.537351663411068</v>
+        <v>0.3324772688530321</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.4007600811795264</v>
+        <v>0.6336645182106487</v>
       </c>
       <c r="E172" t="n">
         <v>33</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5376173910858153</v>
+        <v>0.1943245612924628</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.4887723982446196</v>
+        <v>0.1808006666727096</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.7244614214852508</v>
+        <v>0.6248747720348276</v>
       </c>
       <c r="E173" t="n">
         <v>33</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.2437777758057164</v>
+        <v>0.06180418565920694</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.504506744025861</v>
+        <v>0.2508708977260065</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.5699948367668957</v>
+        <v>0.6873249166147863</v>
       </c>
       <c r="E174" t="n">
         <v>33</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.8957654206155241</v>
+        <v>0.04906644956335172</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.218369378226063</v>
+        <v>0.22951461346677</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.7532736950390487</v>
+        <v>0.7214189369698782</v>
       </c>
       <c r="E175" t="n">
         <v>33</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.1511166615264312</v>
+        <v>0.2488402931986231</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.2360356875793659</v>
+        <v>0.3300150441979567</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.09384887229376512</v>
+        <v>0.4211446626034199</v>
       </c>
       <c r="E176" t="n">
         <v>33</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.08569945765831355</v>
+        <v>0.1003274446123079</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.8214839149169827</v>
+        <v>0.1658630414515488</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9374825413614659</v>
+        <v>0.7338095139361435</v>
       </c>
       <c r="E177" t="n">
         <v>33</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2175690584854151</v>
+        <v>0.07764266023936557</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.9078060100691929</v>
+        <v>0.100513143219511</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.404743553222401</v>
+        <v>0.8218441965411234</v>
       </c>
       <c r="E178" t="n">
         <v>33</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1524136654704298</v>
+        <v>0.1229280405448519</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.7558411508218181</v>
+        <v>0.2773288128262205</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.4023598110046663</v>
+        <v>0.5997431466289277</v>
       </c>
       <c r="E179" t="n">
         <v>33</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.01491345043024192</v>
+        <v>0.03315115164646091</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.447896589431697</v>
+        <v>0.09897908974023989</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.426788716947251</v>
+        <v>0.8678697586132993</v>
       </c>
       <c r="E180" t="n">
         <v>33</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.03423684792306</v>
+        <v>0.06134994602984579</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.381245135313061</v>
+        <v>0.3954201786624584</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.135876851988037</v>
+        <v>0.543229875307696</v>
       </c>
       <c r="E181" t="n">
         <v>33</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.08609080509607972</v>
+        <v>0.01527667994094277</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.785680124372766</v>
+        <v>0.05226486250583989</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.959772985945679</v>
+        <v>0.9324584575532175</v>
       </c>
       <c r="E182" t="n">
         <v>33</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.281008289501698</v>
+        <v>0.1088984105345062</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.7640689505596059</v>
+        <v>0.1335528995144431</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.123297064543276</v>
+        <v>0.7575486899510505</v>
       </c>
       <c r="E183" t="n">
         <v>33</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.1511166615264312</v>
+        <v>0.2488402931986231</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.2360356875793659</v>
+        <v>0.3300150441979567</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.09384887229376512</v>
+        <v>0.4211446626034199</v>
       </c>
       <c r="E184" t="n">
         <v>34</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.1430683780999915</v>
+        <v>0.2488435578105771</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.237831858883651</v>
+        <v>0.3270501517790457</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1062256055543553</v>
+        <v>0.4241062904103772</v>
       </c>
       <c r="E185" t="n">
         <v>34</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2435438082287954</v>
+        <v>0.4311398368250381</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1924584841064746</v>
+        <v>0.2747196635223736</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.279676557539778</v>
+        <v>0.2941404996525883</v>
       </c>
       <c r="E186" t="n">
         <v>34</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.3347009655923995</v>
+        <v>0.3723927072193858</v>
       </c>
       <c r="C187" t="n">
-        <v>0.517963557780849</v>
+        <v>0.5115217960875716</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9155059785116957</v>
+        <v>0.1160854966930428</v>
       </c>
       <c r="E187" t="n">
         <v>34</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.1299852883412983</v>
+        <v>0.1973011734845142</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.4103878125877277</v>
+        <v>0.2832191486573221</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.339152363464118</v>
+        <v>0.5194796778581638</v>
       </c>
       <c r="E188" t="n">
         <v>34</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5815417616169327</v>
+        <v>0.4882598667601556</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1830265301938035</v>
+        <v>0.1796590205112292</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.9123868448395391</v>
+        <v>0.3320811127286152</v>
       </c>
       <c r="E189" t="n">
         <v>34</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.2834099280988839</v>
+        <v>0.2309580605481595</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.2618347924574286</v>
+        <v>0.3713261845586369</v>
       </c>
       <c r="D190" t="n">
-        <v>0.05193473462194412</v>
+        <v>0.3977157548932034</v>
       </c>
       <c r="E190" t="n">
         <v>34</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.209937255729702</v>
+        <v>0.7442538718293098</v>
       </c>
       <c r="C191" t="n">
-        <v>1.148471380331579</v>
+        <v>0.1857746958155755</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1310472506105106</v>
+        <v>0.06997143235511459</v>
       </c>
       <c r="E191" t="n">
         <v>34</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.020852849850542</v>
+        <v>0.6223678259984711</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4962330467073723</v>
+        <v>0.2070780241586067</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.1257190858646619</v>
+        <v>0.170554149842922</v>
       </c>
       <c r="E192" t="n">
         <v>34</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9978387601848591</v>
+        <v>0.3067094287897542</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.2440372317109991</v>
+        <v>0.1453430494982754</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.83623086965131</v>
+        <v>0.5479475217119703</v>
       </c>
       <c r="E193" t="n">
         <v>34</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9044701410449862</v>
+        <v>0.6967462568280473</v>
       </c>
       <c r="C194" t="n">
-        <v>1.167359734886859</v>
+        <v>0.221101887111446</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.2137830153256693</v>
+        <v>0.08215185606050683</v>
       </c>
       <c r="E194" t="n">
         <v>34</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.3676192945139943</v>
+        <v>0.2165002401887577</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.3246086357631034</v>
+        <v>0.445766676864082</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3848642755094194</v>
+        <v>0.3377330829471604</v>
       </c>
       <c r="E195" t="n">
         <v>34</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5900913313140816</v>
+        <v>0.594674080052316</v>
       </c>
       <c r="C196" t="n">
-        <v>0.8244590471482802</v>
+        <v>0.351665483512454</v>
       </c>
       <c r="D196" t="n">
-        <v>1.401693759375712</v>
+        <v>0.05366043643523</v>
       </c>
       <c r="E196" t="n">
         <v>34</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.146673767369227</v>
+        <v>0.2508460108094839</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.23050662320687</v>
+        <v>0.3299544525266798</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.09185193114401832</v>
+        <v>0.4191995366638361</v>
       </c>
       <c r="E197" t="n">
         <v>34</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.206309795110734</v>
+        <v>0.7392121277319872</v>
       </c>
       <c r="C198" t="n">
-        <v>1.755268893977266</v>
+        <v>0.2360637481942728</v>
       </c>
       <c r="D198" t="n">
-        <v>1.138385283630562</v>
+        <v>0.02472412407373979</v>
       </c>
       <c r="E198" t="n">
         <v>34</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.03586913735621589</v>
+        <v>0.328688805487515</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.03506851647436646</v>
+        <v>0.3140552052799074</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.09359859029583371</v>
+        <v>0.3572559892325775</v>
       </c>
       <c r="E199" t="n">
         <v>34</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1428758607399205</v>
+        <v>0.4768579458033078</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5163863558407925</v>
+        <v>0.3535516498493286</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1812945061693999</v>
+        <v>0.1695904043473637</v>
       </c>
       <c r="E200" t="n">
         <v>34</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.1738657312651388</v>
+        <v>0.2162057374313578</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.3400602187988954</v>
+        <v>0.3138368289210555</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.1943513261597626</v>
+        <v>0.4699574336475866</v>
       </c>
       <c r="E201" t="n">
         <v>34</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.821419872878159</v>
+        <v>0.7805553924748482</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7453595728311375</v>
+        <v>0.1161796873223619</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.3128989724459976</v>
+        <v>0.1032649202027899</v>
       </c>
       <c r="E202" t="n">
         <v>34</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.0429064883619808</v>
+        <v>0.3123744708296106</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.06053298219935063</v>
+        <v>0.3223007231418427</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.08765758476042385</v>
+        <v>0.3653248060285467</v>
       </c>
       <c r="E203" t="n">
         <v>34</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.07028923534064349</v>
+        <v>0.4878186195672274</v>
       </c>
       <c r="C204" t="n">
-        <v>1.683647041233512</v>
+        <v>0.4667422335906956</v>
       </c>
       <c r="D204" t="n">
-        <v>1.172393262143718</v>
+        <v>0.04543914684207706</v>
       </c>
       <c r="E204" t="n">
         <v>34</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.2234045308717368</v>
+        <v>0.5286811755157158</v>
       </c>
       <c r="C205" t="n">
-        <v>1.457019026398709</v>
+        <v>0.3939397624943757</v>
       </c>
       <c r="D205" t="n">
-        <v>0.526030806109801</v>
+        <v>0.07737906198990833</v>
       </c>
       <c r="E205" t="n">
         <v>34</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8049921280178152</v>
+        <v>0.652907626034514</v>
       </c>
       <c r="C206" t="n">
-        <v>1.283732005757847</v>
+        <v>0.3037837189141152</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9912565411210383</v>
+        <v>0.04330865505137083</v>
       </c>
       <c r="E206" t="n">
         <v>34</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4227545857055062</v>
+        <v>0.5100495179191428</v>
       </c>
       <c r="C207" t="n">
-        <v>0.422968750803104</v>
+        <v>0.3013367209220744</v>
       </c>
       <c r="D207" t="n">
-        <v>0.09979782016086611</v>
+        <v>0.1886137611587828</v>
       </c>
       <c r="E207" t="n">
         <v>34</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.8335254113728745</v>
+        <v>0.1900584338595596</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.2578057717910304</v>
+        <v>0.5677142386946501</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7830125596721808</v>
+        <v>0.2422273274457902</v>
       </c>
       <c r="E208" t="n">
         <v>34</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.214023314631199</v>
+        <v>0.6874678705077608</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5758730357869576</v>
+        <v>0.152503308212717</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.6833780386786518</v>
+        <v>0.1600288212795222</v>
       </c>
       <c r="E209" t="n">
         <v>34</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2.796977253718273</v>
+        <v>0.9147102898149743</v>
       </c>
       <c r="C210" t="n">
-        <v>1.224565030143501</v>
+        <v>0.0515155735381583</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.3133202867596346</v>
+        <v>0.03377413664686747</v>
       </c>
       <c r="E210" t="n">
         <v>34</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.01232093190084327</v>
+        <v>0.465874908091973</v>
       </c>
       <c r="C211" t="n">
-        <v>1.20183440199706</v>
+        <v>0.4732969571874929</v>
       </c>
       <c r="D211" t="n">
-        <v>1.029736749689431</v>
+        <v>0.06082813472053423</v>
       </c>
       <c r="E211" t="n">
         <v>34</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.6670148918221255</v>
+        <v>0.3366940042716008</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7549491578627718</v>
+        <v>0.5122945430208719</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3547373406941561</v>
+        <v>0.1510114527075274</v>
       </c>
       <c r="E212" t="n">
         <v>34</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.1207869851665705</v>
+        <v>0.2596197167980199</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.201938417476167</v>
+        <v>0.3282366465392835</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.09773794310174191</v>
+        <v>0.4121436366626964</v>
       </c>
       <c r="E213" t="n">
         <v>34</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9344418495495979</v>
+        <v>0.6699491028226712</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9816502770777156</v>
+        <v>0.2530314358203314</v>
       </c>
       <c r="D214" t="n">
-        <v>0.3847906706953356</v>
+        <v>0.07701946135699733</v>
       </c>
       <c r="E214" t="n">
         <v>35</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1798099974430952</v>
+        <v>0.4938203035376785</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6928985945813528</v>
+        <v>0.4145456489687105</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9119619073882459</v>
+        <v>0.09163404749361087</v>
       </c>
       <c r="E215" t="n">
         <v>35</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3185949043657282</v>
+        <v>0.5199003068054145</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6006025684221322</v>
+        <v>0.3319858317003158</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2043003847604296</v>
+        <v>0.1481138614942697</v>
       </c>
       <c r="E216" t="n">
         <v>35</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.6080226348923128</v>
+        <v>0.2081169043045463</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.263702179838172</v>
+        <v>0.4863998750583041</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4780200057726421</v>
+        <v>0.3054832206371495</v>
       </c>
       <c r="E217" t="n">
         <v>35</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5474099634809151</v>
+        <v>0.5776416311629722</v>
       </c>
       <c r="C218" t="n">
-        <v>0.7891597351828339</v>
+        <v>0.3313297730394961</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6489248613653052</v>
+        <v>0.09102859579753177</v>
       </c>
       <c r="E218" t="n">
         <v>35</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7013091622348062</v>
+        <v>0.5213092765420451</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3109292540914838</v>
+        <v>0.2721427159555937</v>
       </c>
       <c r="D219" t="n">
-        <v>0.2034004526554834</v>
+        <v>0.2065480075023612</v>
       </c>
       <c r="E219" t="n">
         <v>35</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.160942731444705</v>
+        <v>0.6775322086928216</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5165965334949765</v>
+        <v>0.1397690566514394</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.021360059988333</v>
+        <v>0.1826987346557389</v>
       </c>
       <c r="E220" t="n">
         <v>35</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.5250531740882509</v>
+        <v>0.1854962777733286</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.383612380722142</v>
+        <v>0.4233452735611551</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1810968717112917</v>
+        <v>0.3911584486655162</v>
       </c>
       <c r="E221" t="n">
         <v>35</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.05879427330491888</v>
+        <v>0.4515309278128703</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9481320453650059</v>
+        <v>0.4791044140301758</v>
       </c>
       <c r="D222" t="n">
-        <v>1.049066014799874</v>
+        <v>0.06936465815695372</v>
       </c>
       <c r="E222" t="n">
         <v>35</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.1709618031081145</v>
+        <v>0.435102679021595</v>
       </c>
       <c r="C223" t="n">
-        <v>1.266688756006914</v>
+        <v>0.4784654138184399</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6608443547843479</v>
+        <v>0.08643190715996479</v>
       </c>
       <c r="E223" t="n">
         <v>35</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.1512165027703304</v>
+        <v>0.2480885262414809</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.2384791162804347</v>
+        <v>0.3295326694939337</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.09661788979569934</v>
+        <v>0.4223788042645855</v>
       </c>
       <c r="E224" t="n">
         <v>35</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.6636882493076945</v>
+        <v>0.6124332268241606</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9437929253443442</v>
+        <v>0.3283295064361929</v>
       </c>
       <c r="D225" t="n">
-        <v>1.014264012069801</v>
+        <v>0.0592372667396466</v>
       </c>
       <c r="E225" t="n">
         <v>35</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.02981722877497353</v>
+        <v>0.2988678053695922</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.1053319800360573</v>
+        <v>0.3200865813930391</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0932853975132038</v>
+        <v>0.3810456132373687</v>
       </c>
       <c r="E226" t="n">
         <v>35</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.01081253253365569</v>
+        <v>0.2981745793926284</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.1174346851730004</v>
+        <v>0.298512903661213</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.205146897712971</v>
+        <v>0.4033125169461588</v>
       </c>
       <c r="E227" t="n">
         <v>35</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.322599244637379</v>
+        <v>0.4838156364761202</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4019180161143123</v>
+        <v>0.3692338405470614</v>
       </c>
       <c r="D228" t="n">
-        <v>0.6932680330476376</v>
+        <v>0.1469505229768182</v>
       </c>
       <c r="E228" t="n">
         <v>35</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04894721784753159</v>
+        <v>0.3373004140736328</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.01298504947040968</v>
+        <v>0.3207314441951438</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.04123253308919643</v>
+        <v>0.3419681417312238</v>
       </c>
       <c r="E229" t="n">
         <v>35</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.7662862084606865</v>
+        <v>0.3490572661087907</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.1374252548763223</v>
+        <v>0.209803038828</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.3847445763472638</v>
+        <v>0.4411396950632093</v>
       </c>
       <c r="E230" t="n">
         <v>35</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4271328027779164</v>
+        <v>0.5593125781360662</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9087667627119806</v>
+        <v>0.3720207965493933</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9417508030940578</v>
+        <v>0.06866662531454033</v>
       </c>
       <c r="E231" t="n">
         <v>35</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.6099349939100567</v>
+        <v>0.591830257526005</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7958303375863591</v>
+        <v>0.310464313336737</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4847821302765881</v>
+        <v>0.09770542913725848</v>
       </c>
       <c r="E232" t="n">
         <v>35</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.4147736218895975</v>
+        <v>0.5546584298797519</v>
       </c>
       <c r="C233" t="n">
-        <v>0.7967320553883748</v>
+        <v>0.3351845374926878</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3579317024888627</v>
+        <v>0.1101570326275603</v>
       </c>
       <c r="E233" t="n">
         <v>35</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4043405359184482</v>
+        <v>0.390170278800137</v>
       </c>
       <c r="C234" t="n">
-        <v>0.006682173169300948</v>
+        <v>0.1977135725417025</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.7432401605371887</v>
+        <v>0.4121161486581602</v>
       </c>
       <c r="E234" t="n">
         <v>35</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.147524588662596</v>
+        <v>0.2409697242096333</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5196146865615501</v>
+        <v>0.604694350124123</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6356519533851693</v>
+        <v>0.1543359256662437</v>
       </c>
       <c r="E235" t="n">
         <v>35</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.1963503659278411</v>
+        <v>0.1065796613254755</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.9140511644045787</v>
+        <v>0.3031081613117365</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.3112647833926036</v>
+        <v>0.5903121773627881</v>
       </c>
       <c r="E236" t="n">
         <v>35</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.4235347350285936</v>
+        <v>0.1436293121970198</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6083279926469443</v>
+        <v>0.3488718596262775</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1413129001077991</v>
+        <v>0.5074988281767024</v>
       </c>
       <c r="E237" t="n">
         <v>35</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.714779466305248</v>
+        <v>0.3063991699369087</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6506734241389118</v>
+        <v>0.6402601020585426</v>
       </c>
       <c r="D238" t="n">
-        <v>1.763316741015467</v>
+        <v>0.05334072800454881</v>
       </c>
       <c r="E238" t="n">
         <v>35</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.1516440977206858</v>
+        <v>0.2359604022660505</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.2778087756164747</v>
+        <v>0.3189099953898985</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1553050743186216</v>
+        <v>0.4451296023440509</v>
       </c>
       <c r="E239" t="n">
         <v>35</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.405750891348617</v>
+        <v>0.7819287069905893</v>
       </c>
       <c r="C240" t="n">
-        <v>1.947458056517902</v>
+        <v>0.2105773379703181</v>
       </c>
       <c r="D240" t="n">
-        <v>2.103929855904116</v>
+        <v>0.007493955039092515</v>
       </c>
       <c r="E240" t="n">
         <v>35</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4918624085797259</v>
+        <v>0.345167779951824</v>
       </c>
       <c r="C241" t="n">
-        <v>0.55094952595614</v>
+        <v>0.5324185251715694</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8186251451097813</v>
+        <v>0.1224136948766066</v>
       </c>
       <c r="E241" t="n">
         <v>35</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.3031352230818643</v>
+        <v>0.2369455856462641</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.2360537868805569</v>
+        <v>0.3795349217553319</v>
       </c>
       <c r="D242" t="n">
-        <v>0.09012288352874889</v>
+        <v>0.3835194925984038</v>
       </c>
       <c r="E242" t="n">
         <v>35</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.02449241520403858</v>
+        <v>0.3152791845113597</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.05409464748868278</v>
+        <v>0.3488700406614521</v>
       </c>
       <c r="D243" t="n">
-        <v>0.08486246764942354</v>
+        <v>0.3358507748271884</v>
       </c>
       <c r="E243" t="n">
         <v>35</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8129166798819349</v>
+        <v>0.668533090989504</v>
       </c>
       <c r="C244" t="n">
-        <v>2.054786928712835</v>
+        <v>0.3198544970622228</v>
       </c>
       <c r="D244" t="n">
-        <v>1.989116101698289</v>
+        <v>0.01161241194827341</v>
       </c>
       <c r="E244" t="n">
         <v>35</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3219573866240888</v>
+        <v>0.2920324307496783</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.2039442747530595</v>
+        <v>0.2329371254474577</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.4555428053439958</v>
+        <v>0.4750304438028644</v>
       </c>
       <c r="E245" t="n">
         <v>35</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5079368719781439</v>
+        <v>0.6117716810646056</v>
       </c>
       <c r="C246" t="n">
-        <v>1.147278284617119</v>
+        <v>0.2882239821194594</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.09351985924473062</v>
+        <v>0.1000043368159349</v>
       </c>
       <c r="E246" t="n">
         <v>35</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5486366882137541</v>
+        <v>0.1062450668945147</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.8131629967576003</v>
+        <v>0.1393832204342501</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.013170626445536</v>
+        <v>0.7543717126712355</v>
       </c>
       <c r="E247" t="n">
         <v>35</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.006784697998053646</v>
+        <v>0.4248443314432367</v>
       </c>
       <c r="C248" t="n">
-        <v>0.4058264843361556</v>
+        <v>0.4061913741960875</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4692227118421167</v>
+        <v>0.1689642943606758</v>
       </c>
       <c r="E248" t="n">
         <v>35</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.122136284733008</v>
+        <v>0.2888841326083656</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.1197656903984073</v>
+        <v>0.3837627242319669</v>
       </c>
       <c r="D249" t="n">
-        <v>0.2409180438676496</v>
+        <v>0.3273531431596673</v>
       </c>
       <c r="E249" t="n">
         <v>36</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.2023267007667668</v>
+        <v>0.2494734292442084</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.2189085445729713</v>
+        <v>0.3596507719966376</v>
       </c>
       <c r="D250" t="n">
-        <v>0.03513152042986992</v>
+        <v>0.3908757987591541</v>
       </c>
       <c r="E250" t="n">
         <v>36</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.295980658931269</v>
+        <v>0.1942803936824583</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.4102988434648751</v>
+        <v>0.3677911240171028</v>
       </c>
       <c r="D251" t="n">
-        <v>0.01292372510399466</v>
+        <v>0.4379284823004388</v>
       </c>
       <c r="E251" t="n">
         <v>36</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4942163402835665</v>
+        <v>0.5872612927539381</v>
       </c>
       <c r="C252" t="n">
-        <v>1.317433441369843</v>
+        <v>0.3774297833629616</v>
       </c>
       <c r="D252" t="n">
-        <v>1.352520504949333</v>
+        <v>0.03530892388310026</v>
       </c>
       <c r="E252" t="n">
         <v>36</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.01758205112978825</v>
+        <v>0.3545057092393609</v>
       </c>
       <c r="C253" t="n">
-        <v>0.04305715606619984</v>
+        <v>0.2744634198220138</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.4133975652222626</v>
+        <v>0.3710308709386253</v>
       </c>
       <c r="E253" t="n">
         <v>36</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.05811201881860069</v>
+        <v>0.3444083907090505</v>
       </c>
       <c r="C254" t="n">
-        <v>0.04861025222631668</v>
+        <v>0.345025195317186</v>
       </c>
       <c r="D254" t="n">
-        <v>0.04217141174492176</v>
+        <v>0.3105664139737633</v>
       </c>
       <c r="E254" t="n">
         <v>36</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.2084130205573035</v>
+        <v>0.2414912076782265</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.2471834023164147</v>
+        <v>0.3444998827409396</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.04371369454264241</v>
+        <v>0.4140089095808338</v>
       </c>
       <c r="E255" t="n">
         <v>36</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1732296351696327</v>
+        <v>0.4176144818846733</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2047407999233051</v>
+        <v>0.3419570166909284</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2120592345722341</v>
+        <v>0.2404285014243986</v>
       </c>
       <c r="E256" t="n">
         <v>36</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.5857691150909052</v>
+        <v>0.5751346173903709</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6402838519368241</v>
+        <v>0.2895724120473825</v>
       </c>
       <c r="D257" t="n">
-        <v>0.1803109712545499</v>
+        <v>0.1352929705622465</v>
       </c>
       <c r="E257" t="n">
         <v>36</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2183824261811961</v>
+        <v>0.2242665318397961</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.3026012143272752</v>
+        <v>0.3281126310613257</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.1359726182832356</v>
+        <v>0.4476208370988782</v>
       </c>
       <c r="E258" t="n">
         <v>36</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.3304637761425342</v>
+        <v>0.3867440600876095</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6677759892959364</v>
+        <v>0.5625896362709097</v>
       </c>
       <c r="D259" t="n">
-        <v>1.844372959182137</v>
+        <v>0.05066630364148077</v>
       </c>
       <c r="E259" t="n">
         <v>36</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.2301490705001277</v>
+        <v>0.2429705009244663</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.2319367665526711</v>
+        <v>0.3576180681039398</v>
       </c>
       <c r="D260" t="n">
-        <v>0.008726644645451184</v>
+        <v>0.3994114309715937</v>
       </c>
       <c r="E260" t="n">
         <v>36</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.1511166615264312</v>
+        <v>0.2488402931986231</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2360356875793659</v>
+        <v>0.3300150441979567</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.09384887229376512</v>
+        <v>0.4211446626034199</v>
       </c>
       <c r="E261" t="n">
         <v>36</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.123742601774635</v>
+        <v>0.2593893454616477</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.2021868547258449</v>
+        <v>0.3299094240123384</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.08972374236190653</v>
+        <v>0.410701230526014</v>
       </c>
       <c r="E262" t="n">
         <v>36</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1934215977321713</v>
+        <v>0.3989877801128212</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1177344755788501</v>
+        <v>0.2989263456530012</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.08944953507923289</v>
+        <v>0.3020858742341777</v>
       </c>
       <c r="E263" t="n">
         <v>36</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.3747791113421981</v>
+        <v>0.3515637836950711</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3468013702766097</v>
+        <v>0.5445369564581881</v>
       </c>
       <c r="D264" t="n">
-        <v>1.360356334974435</v>
+        <v>0.1038992598467408</v>
       </c>
       <c r="E264" t="n">
         <v>36</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.1958921233233896</v>
+        <v>0.2397406179212074</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.2514819388069418</v>
+        <v>0.3504767822293375</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.01651712140155935</v>
+        <v>0.4097825998494549</v>
       </c>
       <c r="E265" t="n">
         <v>36</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3441191602091323</v>
+        <v>0.5466511813778786</v>
       </c>
       <c r="C266" t="n">
-        <v>0.74448700342605</v>
+        <v>0.3174331372949947</v>
       </c>
       <c r="D266" t="n">
-        <v>0.04250552542676603</v>
+        <v>0.1359156813271267</v>
       </c>
       <c r="E266" t="n">
         <v>36</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.2878019484475192</v>
+        <v>0.3908327423971941</v>
       </c>
       <c r="C267" t="n">
-        <v>0.5934455222747785</v>
+        <v>0.4719097229703922</v>
       </c>
       <c r="D267" t="n">
-        <v>0.5620128738101451</v>
+        <v>0.137257534632414</v>
       </c>
       <c r="E267" t="n">
         <v>36</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.1511166648360575</v>
+        <v>0.2488402929708389</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.2360356875793659</v>
+        <v>0.3300150452733105</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.0938488680283706</v>
+        <v>0.4211446617558507</v>
       </c>
       <c r="E268" t="n">
         <v>36</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.1482304604316096</v>
+        <v>0.2523031416079584</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2253555597402139</v>
+        <v>0.3313572927473414</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.08471942268902423</v>
+        <v>0.4163395656447002</v>
       </c>
       <c r="E269" t="n">
         <v>36</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.1500042108031856</v>
+        <v>0.2604469561089638</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.1928491936267351</v>
+        <v>0.3377224211489055</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.05755157613673766</v>
+        <v>0.4018306227421305</v>
       </c>
       <c r="E270" t="n">
         <v>36</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.6434000093632517</v>
+        <v>0.499777188794361</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2410827114046385</v>
+        <v>0.2226670798818649</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.4023211082083468</v>
+        <v>0.277555731323774</v>
       </c>
       <c r="E271" t="n">
         <v>36</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-1.93040286510826</v>
+        <v>0.1469366202081905</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9393560011352569</v>
+        <v>0.729152056248584</v>
       </c>
       <c r="D272" t="n">
-        <v>0.7782531960008514</v>
+        <v>0.1239113235432252</v>
       </c>
       <c r="E272" t="n">
         <v>36</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.366304420376963</v>
+        <v>0.2338229493237769</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.2366015771725068</v>
+        <v>0.4083725604926845</v>
       </c>
       <c r="D273" t="n">
-        <v>0.2133633617092617</v>
+        <v>0.3578044901835386</v>
       </c>
       <c r="E273" t="n">
         <v>36</v>
